--- a/people and ideas.xlsx
+++ b/people and ideas.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c31ac72a4a29ae1e/Документы/markdown/lecture-notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_3DEDD44422E96DAFA7E7EC35E1448D3C3CA1881E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBA0DD3E-5B32-4883-9528-7658ABDBE9FF}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="14355" windowHeight="12855"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Люди" sheetId="1" r:id="rId1"/>
     <sheet name="Концепции" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="398">
   <si>
     <t>эпоха</t>
   </si>
@@ -318,9 +337,6 @@
     <t>1784 - 1856</t>
   </si>
   <si>
-    <t>Последний большой потопщик; считал, что 6 дней творения - фигура речи; собрал обширный материал в поддержку Потопа</t>
-  </si>
-  <si>
     <t>труды</t>
   </si>
   <si>
@@ -366,15 +382,9 @@
     <t>Эволюция прерывиста (сальтационизм)</t>
   </si>
   <si>
-    <t>Философия анатомии, 1818</t>
-  </si>
-  <si>
     <t>оппонент</t>
   </si>
   <si>
-    <t>Основы геологии, являющиеся попыткой объяснить прошлые изменения поверхности Земли путем соотношения с причинами, ныне действующими, с 1830</t>
-  </si>
-  <si>
     <t>катастрофисты</t>
   </si>
   <si>
@@ -393,12 +403,6 @@
     <t>1797 - 1875</t>
   </si>
   <si>
-    <t>Принцип униформизма: единообразие, непрерывность, равномерность, суммирование. Метод актуализма</t>
-  </si>
-  <si>
-    <t>Выделел в третичных отложениях эоцен, миоцен, плиоцен</t>
-  </si>
-  <si>
     <t>униформисты</t>
   </si>
   <si>
@@ -408,15 +412,9 @@
     <t>1779 - 1848</t>
   </si>
   <si>
-    <t>химик, минералог</t>
-  </si>
-  <si>
     <t>Швеция</t>
   </si>
   <si>
-    <t>первая химическая классификация минералов</t>
-  </si>
-  <si>
     <t>Севергин</t>
   </si>
   <si>
@@ -429,9 +427,6 @@
     <t>Систематизировал минералогию России; заложил основы описательной минералогии</t>
   </si>
   <si>
-    <t>Опыт минералогического описания Российского государства, 1809</t>
-  </si>
-  <si>
     <t>Василий Михайлович Севергин</t>
   </si>
   <si>
@@ -462,9 +457,6 @@
     <t>Концепция кратеров поднятия</t>
   </si>
   <si>
-    <t>Аристотель XIX века, тоже кратеры поднятия; вулканизм; много путешествовал</t>
-  </si>
-  <si>
     <t>600 научных работ</t>
   </si>
   <si>
@@ -477,9 +469,6 @@
     <t>полевой геолог</t>
   </si>
   <si>
-    <t>О вулканах и кратерах поднятия, 1836</t>
-  </si>
-  <si>
     <t>1769 - 1839</t>
   </si>
   <si>
@@ -516,9 +505,6 @@
     <t>1741 - 1811</t>
   </si>
   <si>
-    <t>Граниты горных сооружений никогда не были покрыты морем, возникли вместе с Землей</t>
-  </si>
-  <si>
     <t>Абраам Готлиб Вернер</t>
   </si>
   <si>
@@ -549,9 +535,6 @@
     <t>1749 - 1827</t>
   </si>
   <si>
-    <t>математик, астроном</t>
-  </si>
-  <si>
     <t>Иммануил Кант</t>
   </si>
   <si>
@@ -561,24 +544,12 @@
     <t>философ</t>
   </si>
   <si>
-    <t>Всеобщая естественная история и теория неба, 1755</t>
-  </si>
-  <si>
     <t>Вселенная образовалась из мелких твердых частиц под действием силы тяжести</t>
   </si>
   <si>
-    <t>Изложение системы мира, 1797</t>
-  </si>
-  <si>
     <t>Газовая туманность вращается и сжимается в Солнце и планеты</t>
   </si>
   <si>
-    <t>Кристаллизация из водного раствора, в т.ч. наклонных слоев. Выделил 7 этапов развития планеты</t>
-  </si>
-  <si>
-    <t>вписать, какие с 38</t>
-  </si>
-  <si>
     <t>Италия</t>
   </si>
   <si>
@@ -597,18 +568,9 @@
     <t>1596 - 1650</t>
   </si>
   <si>
-    <t>О твердом, естественно содержащемся в твердом</t>
-  </si>
-  <si>
-    <t>Приципы стратиграфии: непрерывность, суперпозиция, горизонтальность+параллельность. Нарушенное и несогласное залегание. Закон постоянства углов кристаллов</t>
-  </si>
-  <si>
     <t>История геологического развития Тосканы</t>
   </si>
   <si>
-    <t>Философские принципы, 1644</t>
-  </si>
-  <si>
     <t>Концентрическое строение и модель эволюции Земли; в центре солнечная материя</t>
   </si>
   <si>
@@ -624,9 +586,6 @@
     <t>Выделил минералы и горные породы; формы залегания рудных тел; 20 новых минералов (до него 60)</t>
   </si>
   <si>
-    <t>О горном деле и металлургии, 1556</t>
-  </si>
-  <si>
     <t>Николай Коперник</t>
   </si>
   <si>
@@ -663,15 +622,9 @@
     <t>1510 - 1589</t>
   </si>
   <si>
-    <t>минералог, керамик</t>
-  </si>
-  <si>
     <t>Пионер гидрогеологии; первый французский минералог</t>
   </si>
   <si>
-    <t>О водах и источниках, 1580</t>
-  </si>
-  <si>
     <t>Абу Рейхан аль-Бируни</t>
   </si>
   <si>
@@ -699,21 +652,12 @@
     <t xml:space="preserve">Перевел и прокомментировал Аристотеля </t>
   </si>
   <si>
-    <t>философ, энциклопедист</t>
-  </si>
-  <si>
     <t>Минералогический трактат</t>
   </si>
   <si>
     <t>Шар; географическая карта Старого Света; образование речных наносов; суша и Земля меняются местами; сведениея по диагностике и применению 100 минералов и пород</t>
   </si>
   <si>
-    <t>врач, философ, энциклопедист</t>
-  </si>
-  <si>
-    <t>Отложение осадков из воды или из грязи; наличие "интенсивного тепла под морем"; мир был под водой; принцип скперпозиции слоев; классификация минеральных тел (камни, металлы, серные горючие, соли)</t>
-  </si>
-  <si>
     <t>Земля возникла из воды и вновь в нее обратится</t>
   </si>
   <si>
@@ -753,12 +697,6 @@
     <t>-310 - -230</t>
   </si>
   <si>
-    <t>Гелиоцентрическая система, расстояния до Солнца и Луны</t>
-  </si>
-  <si>
-    <t>историк, географ</t>
-  </si>
-  <si>
     <t>География в 17 т.</t>
   </si>
   <si>
@@ -786,27 +724,18 @@
     <t>Уильям Гилберт</t>
   </si>
   <si>
-    <t>физик, врач</t>
-  </si>
-  <si>
     <t>1544 - 1603</t>
   </si>
   <si>
     <t>Разделил электричество и магнетизм; Земля - большой магнит</t>
   </si>
   <si>
-    <t>О магните, магнитных телах, и о великом магните - Земле, 1600</t>
-  </si>
-  <si>
     <t>Жан Буридан</t>
   </si>
   <si>
     <t>1301 - 1359</t>
   </si>
   <si>
-    <t>философ, механик</t>
-  </si>
-  <si>
     <t>Инерция (импетус)</t>
   </si>
   <si>
@@ -825,21 +754,12 @@
     <t>Альберт фон Больштедт</t>
   </si>
   <si>
-    <t>философ, теолог</t>
-  </si>
-  <si>
-    <t>Ввел знания античных философов, систематизировал все; doctor universalis. Исследовал кометы, затмения, вулканы</t>
-  </si>
-  <si>
     <t>Иоганн Кеплер</t>
   </si>
   <si>
     <t>1571 - 1630</t>
   </si>
   <si>
-    <t>Рудольфинские таблицы, 1627</t>
-  </si>
-  <si>
     <t>Законы движения планет: эллипсы вместо эпициклов; Снежинки и плотнейшая упаковка; объем тел вращения</t>
   </si>
   <si>
@@ -849,33 +769,18 @@
     <t>1564 - 1642</t>
   </si>
   <si>
-    <t>физик, астроном</t>
-  </si>
-  <si>
     <t>гелиоцентрист</t>
   </si>
   <si>
     <t>Исаак Ньютон</t>
   </si>
   <si>
-    <t>физик, математик</t>
-  </si>
-  <si>
-    <t>Вселенная - гигантский механизм. Инерция и законы движения, маятники, ИСО</t>
-  </si>
-  <si>
     <t>Закон всемирного тяготения. Земля - сплюснутый сфероид</t>
   </si>
   <si>
-    <t>Математические начала натуральной философии, 1687</t>
-  </si>
-  <si>
     <t>1642 - 1727</t>
   </si>
   <si>
-    <t>гелиоцентрист, механист</t>
-  </si>
-  <si>
     <t>Роберт Гук</t>
   </si>
   <si>
@@ -885,9 +790,6 @@
     <t>Землетрясения связанны с действием подземного огня; эксперименты по образованию лунных кратеров; закон всемирного тяготеня для круговых орбит</t>
   </si>
   <si>
-    <t>физик, изобретатель</t>
-  </si>
-  <si>
     <t>Готфрид Вильгельм Лейбниц</t>
   </si>
   <si>
@@ -897,9 +799,6 @@
     <t>Предположил жидкое ядро земли; сформулировал закон сохранения энергии</t>
   </si>
   <si>
-    <t>Протогея, 1691</t>
-  </si>
-  <si>
     <t>Михайло Васильевич Ломоносов</t>
   </si>
   <si>
@@ -909,9 +808,6 @@
     <t>1777 - 1855</t>
   </si>
   <si>
-    <t>математик, геодезист</t>
-  </si>
-  <si>
     <t>Изобрел гелиотроп и все им отснял; UTM; МНК; высшая геодезия</t>
   </si>
   <si>
@@ -927,12 +823,6 @@
     <t>Бакленд</t>
   </si>
   <si>
-    <t>геолог, палеонтолог</t>
-  </si>
-  <si>
-    <t>Reliquiae diluvianae, 1824</t>
-  </si>
-  <si>
     <t>Основоположник научной кристаллографии</t>
   </si>
   <si>
@@ -951,16 +841,400 @@
     <t>контракционист</t>
   </si>
   <si>
-    <t>Геологическая карта Франции, 1840; Замечания о горных системах, 1852</t>
-  </si>
-  <si>
-    <t>Горные цепи - морщины на остывающей коре, подчиняются математическим законам</t>
+    <t>Марсель Бертран</t>
+  </si>
+  <si>
+    <t>1847 - 1907</t>
+  </si>
+  <si>
+    <t>Разделил европу на зоны складчатости; установил формации</t>
+  </si>
+  <si>
+    <t>Эдуард Зюсс</t>
+  </si>
+  <si>
+    <t>1831 - 1914</t>
+  </si>
+  <si>
+    <t>Австрия</t>
+  </si>
+  <si>
+    <t>Лик Земли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джеймс Холл </t>
+  </si>
+  <si>
+    <t>1811 - 1970</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Джеймс Дуайт Дэна</t>
+  </si>
+  <si>
+    <t>1813 - 1895</t>
+  </si>
+  <si>
+    <t>фиксисты</t>
+  </si>
+  <si>
+    <t>Придумал геосинклинали и геоантиклинали</t>
+  </si>
+  <si>
+    <t>Ог</t>
+  </si>
+  <si>
+    <t>Гюстав Эмиль Ог</t>
+  </si>
+  <si>
+    <t>1861 - 1927</t>
+  </si>
+  <si>
+    <t>Геосинклинали и континентальные площади</t>
+  </si>
+  <si>
+    <t>Противопоставил геосинклинали и платформы; положил начало палеотектоническим картам</t>
+  </si>
+  <si>
+    <t>Александр Петрович Карпинский</t>
+  </si>
+  <si>
+    <t>1847 - 1936</t>
+  </si>
+  <si>
+    <t>Павлов</t>
+  </si>
+  <si>
+    <t>Алексей Петрович Павлов</t>
+  </si>
+  <si>
+    <t>1854 - 1929</t>
+  </si>
+  <si>
+    <t>Левинсон-Лессинг</t>
+  </si>
+  <si>
+    <t>Франц Юльевич Левинсон-Лессинг</t>
+  </si>
+  <si>
+    <t>1861 - 1939</t>
+  </si>
+  <si>
+    <t>доклад "О кризисе магмы"</t>
+  </si>
+  <si>
+    <t>Пауль Грот</t>
+  </si>
+  <si>
+    <t>1843 - 1927</t>
+  </si>
+  <si>
+    <t>Отделял кремний в структуре силикатов; допускал существования множества гипотетических кремнистых кислот</t>
+  </si>
+  <si>
+    <t>1853 - 1919</t>
+  </si>
+  <si>
+    <t>Голицын</t>
+  </si>
+  <si>
+    <t>Борис Борисович Голицын</t>
+  </si>
+  <si>
+    <t>1862 - 1916</t>
+  </si>
+  <si>
+    <t>физик</t>
+  </si>
+  <si>
+    <t>Владимир Владимирович Белоусов</t>
+  </si>
+  <si>
+    <t>1907 - 1990</t>
+  </si>
+  <si>
+    <t>фиксист</t>
+  </si>
+  <si>
+    <t>"Радиомирграционная гипотеза" - наиболее полно разработанная фиксистская гипотеза</t>
+  </si>
+  <si>
+    <t>Альфред Вегенер</t>
+  </si>
+  <si>
+    <t>1880 - 1930</t>
+  </si>
+  <si>
+    <t>геофизик</t>
+  </si>
+  <si>
+    <t>мобилисты</t>
+  </si>
+  <si>
+    <t>гипотеза Джоли</t>
+  </si>
+  <si>
+    <t>гипотеза Вегенера</t>
+  </si>
+  <si>
+    <t>закон Ога</t>
+  </si>
+  <si>
+    <t>тектонист</t>
+  </si>
+  <si>
+    <t>Николай Сергеевич Шатский</t>
+  </si>
+  <si>
+    <t>1895 - 1960</t>
+  </si>
+  <si>
+    <t>Выделил авлакогены; тект карта СССР</t>
+  </si>
+  <si>
+    <t>Основы сравнительной тектоники</t>
+  </si>
+  <si>
+    <t>Орогенические фазы</t>
+  </si>
+  <si>
+    <t>Ганс Штилле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1876 - </t>
+  </si>
+  <si>
+    <t>Владимир Афанасьевич Обручев</t>
+  </si>
+  <si>
+    <t>1863 - 1956</t>
+  </si>
+  <si>
+    <t>Владимир Иванович Вернадский</t>
+  </si>
+  <si>
+    <t>1863 - 1945</t>
+  </si>
+  <si>
+    <t>геохимик</t>
+  </si>
+  <si>
+    <t>Основоположник геохимии</t>
+  </si>
+  <si>
+    <t>Очерки геохимии</t>
+  </si>
+  <si>
+    <t>Александр Евгеньевич Ферсман</t>
+  </si>
+  <si>
+    <t>1883 - 1945</t>
+  </si>
+  <si>
+    <t>Геохимия в 4 т.</t>
+  </si>
+  <si>
+    <t>Положил начало региональной геохимии</t>
+  </si>
+  <si>
+    <t>Дмитрий Сергеевич Коржинский</t>
+  </si>
+  <si>
+    <t>1899 - 1985</t>
+  </si>
+  <si>
+    <t>Разработал термодинамику метаморфических систем</t>
+  </si>
+  <si>
+    <t>Гарри Хесс</t>
+  </si>
+  <si>
+    <t>1906 - 1969</t>
+  </si>
+  <si>
+    <t>Концепция расширения океанов</t>
+  </si>
+  <si>
+    <t>Джон Тузо Вилсон</t>
+  </si>
+  <si>
+    <t>1908 - 1993</t>
+  </si>
+  <si>
+    <t>Лев Павлович Зоненштайн</t>
+  </si>
+  <si>
+    <t>Зоненштайн</t>
+  </si>
+  <si>
+    <t>1929 - 1992</t>
+  </si>
+  <si>
+    <t>Первые отечественные руководства по мобилистской геодинамике; объяснение тектоники СССР через плиты</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>Закономерное увеличение возраста океанских островов по мере удаления от оси спрединга</t>
+  </si>
+  <si>
+    <t>Йёнс Якоб Берцелиус</t>
+  </si>
+  <si>
+    <t>Первая химическая классификация минералов; современные символы элементов</t>
+  </si>
+  <si>
+    <t>Выделил слой С - переходный от верхней к нижней мантии; изобрел сейсмограф оригинальной конструкции</t>
+  </si>
+  <si>
+    <t>Ввел термин "неотектоника" для обозначения движений и деформаций создавших рельеф современной суши</t>
+  </si>
+  <si>
+    <t>Впервые выдвинул гипотезу дрейфа материков (по очертаниям + составу + биостратиграфии)</t>
+  </si>
+  <si>
+    <t>Практически обосновал гипотезу контракции и развил на огромном фактическом материале. Ввел много новых понятий: Евразия - Тетис - эвстатические колебания итд</t>
+  </si>
+  <si>
+    <t>химик; минералог</t>
+  </si>
+  <si>
+    <t>Опыт минералогического описания Российского государства 1809</t>
+  </si>
+  <si>
+    <t>Изучал Аппалачи; пришел к выводу что были прогибы</t>
+  </si>
+  <si>
+    <t>Горные цепи - морщины на остывающей коре и подчиняются математическим законам</t>
+  </si>
+  <si>
+    <t>Геологическая карта Франции 1840; Замечания о горных системах 1852</t>
+  </si>
+  <si>
+    <t>Принцип униформизма: единообразие - непрерывность - равномерность - суммирование. Метод актуализма</t>
+  </si>
+  <si>
+    <t>Основы геологии - попытка объяснить прошлые изменения поверхности Земли путем соотношения с ныне действующими причинами. с 1830</t>
+  </si>
+  <si>
+    <t>Выделел в третичных отложениях эоцен - миоцен - плиоцен</t>
+  </si>
+  <si>
+    <t>геолог; палеонтолог</t>
+  </si>
+  <si>
+    <t>Последний большой потопщик; считал что 6 дней творения - фигура речи; собрал обширный материал в поддержку Потопа</t>
+  </si>
+  <si>
+    <t>Reliquiae diluvianae 1824</t>
+  </si>
+  <si>
+    <t>математик; геодезист</t>
+  </si>
+  <si>
+    <t>О вулканах и кратерах поднятия 1836</t>
+  </si>
+  <si>
+    <t>Аристотель XIX века; тоже кратеры поднятия; вулканизм; много путешествовал</t>
+  </si>
+  <si>
+    <t>Философия анатомии 1818</t>
+  </si>
+  <si>
+    <t>Первая катастрофисткая гипотеза СС. Кристаллизация из водного раствора в т.ч. наклонных слоев. Выделил 7 этапов развития планеты</t>
+  </si>
+  <si>
+    <t>Граниты горных сооружений никогда не были покрыты морем; возникли вместе с Землей</t>
+  </si>
+  <si>
+    <t>математик; астроном</t>
+  </si>
+  <si>
+    <t>Изложение системы мира 1797</t>
+  </si>
+  <si>
+    <t>Всеобщая естественная история и теория неба 1755</t>
+  </si>
+  <si>
+    <t>Приципы стратиграфии: непрерывность - суперпозиция - горизонтальность+параллельность. Нарушенное и несогласное залегание. Закон постоянства углов кристаллов</t>
+  </si>
+  <si>
+    <t>О твердом естественно содержащемся в твердом</t>
+  </si>
+  <si>
+    <t>Протогея 1691</t>
+  </si>
+  <si>
+    <t>Философские принципы 1644</t>
+  </si>
+  <si>
+    <t>О горном деле и металлургии 1556</t>
+  </si>
+  <si>
+    <t>физик; изобретатель</t>
+  </si>
+  <si>
+    <t>физик; математик</t>
+  </si>
+  <si>
+    <t>гелиоцентрист; механист</t>
+  </si>
+  <si>
+    <t>Математические начала натуральной философии 1687</t>
+  </si>
+  <si>
+    <t>физик; астроном</t>
+  </si>
+  <si>
+    <t>философ; теолог</t>
+  </si>
+  <si>
+    <t>философ; механик</t>
+  </si>
+  <si>
+    <t>минералог; керамик</t>
+  </si>
+  <si>
+    <t>физик; врач</t>
+  </si>
+  <si>
+    <t>философ; энциклопедист</t>
+  </si>
+  <si>
+    <t>врач; философ; энциклопедист</t>
+  </si>
+  <si>
+    <t>историк; географ</t>
+  </si>
+  <si>
+    <t>Рудольфинские таблицы 1627</t>
+  </si>
+  <si>
+    <t>О водах и источниках 1580</t>
+  </si>
+  <si>
+    <t>О магните магнитных телах и о великом магните - Земле 1600</t>
+  </si>
+  <si>
+    <t>Вселенная - гигантский механизм. Инерция и законы движения; маятники; ИСО</t>
+  </si>
+  <si>
+    <t>Ввел знания античных философов; систематизировал все; doctor universalis. Исследовал кометы; затмения; вулканы</t>
+  </si>
+  <si>
+    <t>Отложение осадков из воды или из грязи; наличие "интенсивного тепла под морем"; мир был под водой; принцип скперпозиции слоев; классификация минеральных тел (камни; металлы; серные горючие; соли)</t>
+  </si>
+  <si>
+    <t>Гелиоцентрическая система; расстояния до Солнца и Луны</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,13 +1265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1005,14 +1278,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1050,7 +1326,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1122,7 +1398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1295,26 +1571,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="104" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.41796875" customWidth="1"/>
+    <col min="4" max="4" width="28.15625" customWidth="1"/>
+    <col min="5" max="5" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.41796875" customWidth="1"/>
+    <col min="9" max="9" width="15.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1622,7 @@
         <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
         <v>95</v>
@@ -1355,7 +1631,7 @@
         <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O1" t="s">
         <v>78</v>
@@ -1364,301 +1640,541 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>277</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" t="s">
+        <v>346</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" t="s">
+        <v>329</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>303</v>
+      </c>
+      <c r="J12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" t="s">
+        <v>294</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" t="s">
+        <v>311</v>
+      </c>
+      <c r="J20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>25</v>
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>354</v>
+      </c>
+      <c r="J22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>27</v>
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" t="s">
+        <v>269</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
+      <c r="I26" t="s">
+        <v>280</v>
+      </c>
       <c r="J26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
-      <c r="H27" t="s">
-        <v>92</v>
-      </c>
       <c r="I27" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>312</v>
-      </c>
-      <c r="K27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -1666,83 +2182,50 @@
       <c r="H28" t="s">
         <v>92</v>
       </c>
-      <c r="I28" t="s">
-        <v>127</v>
-      </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>307</v>
-      </c>
-      <c r="E29" t="s">
-        <v>308</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
       </c>
-      <c r="H29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" t="s">
-        <v>309</v>
-      </c>
-      <c r="L29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>297</v>
+      </c>
+      <c r="F30" t="s">
+        <v>158</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
-      </c>
-      <c r="I30" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>299</v>
@@ -1754,1022 +2237,1161 @@
         <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>300</v>
-      </c>
-      <c r="K31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>357</v>
+      </c>
+      <c r="K32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" t="s">
+        <v>359</v>
+      </c>
+      <c r="K33" t="s">
+        <v>360</v>
+      </c>
+      <c r="L33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" t="s">
+        <v>363</v>
+      </c>
+      <c r="K35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" t="s">
-        <v>296</v>
-      </c>
-      <c r="F32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s">
-        <v>297</v>
-      </c>
-      <c r="J32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" t="s">
-        <v>155</v>
-      </c>
-      <c r="J33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34" t="s">
-        <v>153</v>
-      </c>
-      <c r="L34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" t="s">
-        <v>149</v>
-      </c>
-      <c r="L35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
       <c r="D37" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
       </c>
-      <c r="I38" t="s">
-        <v>119</v>
+      <c r="H38" t="s">
+        <v>145</v>
       </c>
       <c r="J38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>367</v>
+      </c>
+      <c r="K40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+      <c r="N42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
         <v>89</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" t="s">
-        <v>141</v>
-      </c>
-      <c r="J39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" t="s">
-        <v>151</v>
-      </c>
-      <c r="J40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I41" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" t="s">
-        <v>160</v>
-      </c>
-      <c r="K41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" t="s">
-        <v>185</v>
-      </c>
-      <c r="K42" t="s">
-        <v>174</v>
-      </c>
-      <c r="O42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" t="s">
-        <v>165</v>
       </c>
       <c r="G44" t="s">
         <v>51</v>
       </c>
-      <c r="I44" t="s">
-        <v>151</v>
+      <c r="H44" t="s">
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
         <v>51</v>
       </c>
-      <c r="H45" t="s">
-        <v>177</v>
+      <c r="I45" t="s">
+        <v>142</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>294</v>
+        <v>147</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
       </c>
-      <c r="H47" t="s">
-        <v>180</v>
+      <c r="I47" t="s">
+        <v>116</v>
       </c>
       <c r="J47" t="s">
-        <v>182</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
-      <c r="J48" t="s">
-        <v>194</v>
-      </c>
-      <c r="K48" t="s">
-        <v>193</v>
-      </c>
-      <c r="O48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J50" t="s">
-        <v>292</v>
-      </c>
-      <c r="K50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" t="s">
-        <v>197</v>
-      </c>
-      <c r="K51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" t="s">
-        <v>199</v>
-      </c>
-      <c r="F52" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" t="s">
-        <v>200</v>
-      </c>
-      <c r="J52" t="s">
-        <v>201</v>
-      </c>
-      <c r="K52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G53" t="s">
         <v>66</v>
       </c>
-      <c r="H53" t="s">
-        <v>289</v>
-      </c>
-      <c r="I53" t="s">
-        <v>278</v>
-      </c>
       <c r="J53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="K53" t="s">
+        <v>375</v>
+      </c>
+      <c r="O53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="G54" t="s">
         <v>66</v>
       </c>
-      <c r="H54" t="s">
-        <v>280</v>
-      </c>
-      <c r="I54" t="s">
-        <v>285</v>
-      </c>
-      <c r="J54" t="s">
-        <v>282</v>
-      </c>
-      <c r="K54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G55" t="s">
         <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>277</v>
-      </c>
-      <c r="I55" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="K55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
         <v>66</v>
       </c>
-      <c r="H56" t="s">
-        <v>177</v>
-      </c>
-      <c r="I56" t="s">
-        <v>278</v>
-      </c>
       <c r="J56" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="K56" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
         <v>66</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="J57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="K57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
         <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="J58" t="s">
-        <v>270</v>
-      </c>
-      <c r="K58" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
         <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>262</v>
+        <v>380</v>
+      </c>
+      <c r="I59" t="s">
+        <v>381</v>
       </c>
       <c r="J59" t="s">
-        <v>263</v>
-      </c>
-      <c r="L59" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="K59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>215</v>
+        <v>383</v>
+      </c>
+      <c r="I60" t="s">
+        <v>381</v>
       </c>
       <c r="J60" t="s">
-        <v>216</v>
-      </c>
-      <c r="K60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>371</v>
+      </c>
+      <c r="I61" t="s">
+        <v>244</v>
       </c>
       <c r="J61" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="K61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
       </c>
       <c r="H62" t="s">
-        <v>256</v>
+        <v>186</v>
+      </c>
+      <c r="I62" t="s">
+        <v>244</v>
       </c>
       <c r="J62" t="s">
-        <v>258</v>
-      </c>
-      <c r="K62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>384</v>
+      </c>
+      <c r="I63" t="s">
+        <v>237</v>
+      </c>
+      <c r="J63" t="s">
+        <v>395</v>
+      </c>
+      <c r="K63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" t="s">
+        <v>385</v>
+      </c>
+      <c r="J64" t="s">
+        <v>233</v>
+      </c>
+      <c r="L64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" t="s">
+        <v>386</v>
+      </c>
+      <c r="J65" t="s">
+        <v>195</v>
+      </c>
+      <c r="K65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" t="s">
+        <v>141</v>
+      </c>
+      <c r="J66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>387</v>
+      </c>
+      <c r="J67" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" t="s">
         <v>67</v>
       </c>
-      <c r="D63" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" t="s">
-        <v>225</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="D68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" t="s">
         <v>70</v>
       </c>
-      <c r="H63" t="s">
-        <v>227</v>
-      </c>
-      <c r="J63" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="H68" t="s">
+        <v>388</v>
+      </c>
+      <c r="J68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
         <v>68</v>
       </c>
-      <c r="D64" t="s">
-        <v>220</v>
-      </c>
-      <c r="E64" t="s">
-        <v>221</v>
-      </c>
-      <c r="F64" t="s">
-        <v>222</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="D69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" t="s">
         <v>70</v>
       </c>
-      <c r="H64" t="s">
-        <v>230</v>
-      </c>
-      <c r="J64" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="H69" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
         <v>69</v>
       </c>
-      <c r="D65" t="s">
-        <v>218</v>
-      </c>
-      <c r="E65" t="s">
-        <v>219</v>
-      </c>
-      <c r="F65" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="D70" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" t="s">
         <v>70</v>
       </c>
-      <c r="H65" t="s">
-        <v>210</v>
-      </c>
-      <c r="J65" t="s">
-        <v>229</v>
-      </c>
-      <c r="K65" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+      <c r="H70" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" t="s">
         <v>71</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D71" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F66" t="s">
-        <v>238</v>
-      </c>
-      <c r="G66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F67" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" t="s">
-        <v>180</v>
-      </c>
-      <c r="J67" t="s">
-        <v>245</v>
-      </c>
-      <c r="K67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F68" t="s">
-        <v>238</v>
-      </c>
-      <c r="G68" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" t="s">
-        <v>246</v>
-      </c>
-      <c r="K68" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F69" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" t="s">
-        <v>180</v>
-      </c>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-      <c r="J69" t="s">
-        <v>241</v>
-      </c>
-      <c r="K69" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D70" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F70" t="s">
-        <v>238</v>
-      </c>
-      <c r="G70" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" t="s">
-        <v>180</v>
-      </c>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" t="s">
-        <v>74</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
-      </c>
-      <c r="I71" t="s">
-        <v>151</v>
-      </c>
-      <c r="J71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J72" t="s">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="K72" t="s">
-        <v>254</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>390</v>
+      </c>
+      <c r="K73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" t="s">
+        <v>213</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s">
+        <v>168</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>216</v>
+      </c>
+      <c r="K74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" t="s">
+        <v>213</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" t="s">
+        <v>142</v>
+      </c>
+      <c r="J76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>168</v>
+      </c>
+      <c r="J77" t="s">
+        <v>226</v>
+      </c>
+      <c r="K77" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2778,19 +3400,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2801,22 +3423,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2825,12 +3462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
